--- a/build/Test_Data.xlsx
+++ b/build/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15600" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Cart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
@@ -564,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -881,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
